--- a/2 SEMESTRE/1 BIMESTRE/PRÁTICA/DECLARAÇÃO DE REQUISITOS.xlsx
+++ b/2 SEMESTRE/1 BIMESTRE/PRÁTICA/DECLARAÇÃO DE REQUISITOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f4b1c1f089768cb/Área de Trabalho/TADS/2 SEMESTRE/1 BIMESTRE/PRÁTICA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f4b1c1f089768cb/Documentos/TADS/TADS/2 SEMESTRE/1 BIMESTRE/PRÁTICA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="24" documentId="8_{6B0C10AA-7526-4E6D-B9B3-7C98D3C04DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{457A1E18-0BAC-46D1-BA08-7543B0247F59}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2400" windowWidth="22005" windowHeight="11250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-21444" yWindow="2964" windowWidth="17556" windowHeight="7572" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -601,6 +601,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,15 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,28 +1343,28 @@
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
@@ -1390,27 +1390,27 @@
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
@@ -1538,7 +1538,7 @@
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,20 +1578,20 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="22" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1775,28 +1775,28 @@
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
@@ -1815,27 +1815,27 @@
       <c r="B19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
